--- a/pred_ohlcv/54_21/2020-01-19 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 TRV ohlcv.xlsx
@@ -5748,7 +5748,7 @@
         <v>-513779.9025108546</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>246547.6608650273</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>464508.3643650273</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>607090.0805363844</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>106867.6954363844</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-128380.8412636156</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-148592.3295636156</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-94445.39486361564</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-129143.0540636157</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-196749.2473515137</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-145971.7031515137</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-305804.2959515137</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-180300.0270515138</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-190281.7438515137</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-197813.2465515138</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-427501.1260515138</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-374667.1250515138</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-374793.6810515138</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-217883.3501515138</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-162539.9810515138</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-248451.0487279064</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-257700.5762279064</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-361913.8579279064</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-361991.8579279064</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-268293.3955279064</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-270689.3735279064</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-23212.95819743758</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-13778.19539743758</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-368313.1956974376</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-369059.1956974376</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>187027.2133416251</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>309199.6267416251</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>456833.3581416251</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1908736.615841625</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3073562.177741625</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>8320901.641783291</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>7713563.446883291</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>7941028.453214341</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>7731546.813414341</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8223071.222814341</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8166339.220014341</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>6788900.572514341</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6699333.629514341</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6553200.465014341</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>6661548.395414341</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6613602.742814342</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>6548490.65220846</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6495754.362908459</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>6328313.699008459</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>5824748.563987125</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>6111273.296587124</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>6081717.214387124</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>6187860.979420961</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>5937039.425020961</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>5692411.459355733</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>5761721.954655733</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>5871072.382355733</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>5875100.477255733</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>6679914.443055733</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>7037333.618855733</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>6681357.216155734</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>6602071.839955734</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>6473988.280219944</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>6305855.143019944</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>6026940.96980404</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>5928826.91380404</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>5985538.18520404</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>5966388.14520404</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>5586768.32030404</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>5624926.79580404</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-8543071.936950427</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-8575508.810550427</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-9135442.227550428</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-8844372.082650429</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-8844332.082650429</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-8844482.571850428</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-8922639.315950431</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-8922639.380050432</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-8937995.673450433</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-8890569.673450433</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-8793057.931850433</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-8648903.786650434</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-8913192.735850435</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-8853450.735850435</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-8853395.935350435</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-9012586.412750436</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-9012536.412750436</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-9012536.412750436</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-8827664.979750436</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-8827664.979750436</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-8827436.050550437</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-10534533.36875044</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-10641599.91705044</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-10641599.91705044</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-10641521.73096756</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-10654077.45576756</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-10668255.88056756</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-10578263.07536756</v>
       </c>
       <c r="H995">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-10580548.79476756</v>
       </c>
       <c r="H996">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-10819190.26436756</v>
       </c>
       <c r="H997">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-10826641.84696756</v>
       </c>
       <c r="H998">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-10747490.06756756</v>
       </c>
       <c r="H999">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-10758509.18486756</v>
       </c>
       <c r="H1000">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1001" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 TRV ohlcv.xlsx
@@ -5748,7 +5748,7 @@
         <v>-513779.9025108546</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>246547.6608650273</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>464508.3643650273</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>647364.5630363844</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>607090.0805363844</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>106867.6954363844</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-128380.8412636156</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-148592.3295636156</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-94445.39486361564</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-129143.0540636157</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-194225.2589515137</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-196749.2473515137</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-145971.7031515137</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-305804.2959515137</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-180300.0270515138</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-190281.7438515137</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-197813.2465515138</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-427501.1260515138</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-374667.1250515138</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-374793.6810515138</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-217883.3501515138</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-162539.9810515138</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-248451.0487279064</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-257700.5762279064</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-361913.8579279064</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-361991.8579279064</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-268293.3955279064</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-270689.3735279064</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-270728.3735279064</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-23212.95819743758</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-13844.19539743758</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-13778.19539743758</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-368313.1956974376</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-369059.1956974376</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>187027.2133416251</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>309199.6267416251</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>456833.3581416251</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>1908736.615841625</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>3073562.177741625</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>6571018.551238783</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>7927835.021983292</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>8320901.641783291</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>7713563.446883291</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>7941028.453214341</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>7731546.813414341</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>8223071.222814341</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>8166339.220014341</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>6788900.572514341</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>6699333.629514341</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>6553200.465014341</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>6661548.395414341</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>6613602.742814342</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>6548490.65220846</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>6495754.362908459</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>6328313.699008459</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>5824748.563987125</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>6111273.296587124</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>5937039.425020961</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>5692411.459355733</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>6679914.443055733</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>7037333.618855733</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>6681357.216155734</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>6602071.839955734</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>6473988.280219944</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>6305855.143019944</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>6452868.141319945</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-8543071.936950427</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>-8575508.810550427</v>
       </c>
       <c r="H850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-8646814.271750428</v>
       </c>
       <c r="H852">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-9165279.991750428</v>
       </c>
       <c r="H853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-9135442.227550428</v>
       </c>
       <c r="H854">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-8928199.253550429</v>
       </c>
       <c r="H855">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-8844372.082650429</v>
       </c>
       <c r="H856">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-8844332.082650429</v>
       </c>
       <c r="H857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-8844482.571850428</v>
       </c>
       <c r="H859">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-8922639.315950431</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-8922639.380050432</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-8937995.673450433</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-8890569.673450433</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-8793057.931850433</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-8695934.203550434</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-8648903.786650434</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-8913192.735850435</v>
       </c>
       <c r="H917">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-8853450.735850435</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-8853395.935350435</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-9012586.412750436</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-9012536.412750436</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-9012536.412750436</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-8827664.979750436</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-8827664.979750436</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>-8827436.050550437</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-10534533.36875044</v>
       </c>
       <c r="H987">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-10641599.91705044</v>
       </c>
       <c r="H988">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-10641599.91705044</v>
       </c>
       <c r="H989">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-10641521.73096756</v>
       </c>
       <c r="H990">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-10654077.45576756</v>
       </c>
       <c r="H992">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-10668255.88056756</v>
       </c>
       <c r="H993">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:8">
@@ -26236,7 +26236,7 @@
         <v>-10578263.07536756</v>
       </c>
       <c r="H994">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:8">
@@ -26262,7 +26262,7 @@
         <v>-10578263.07536756</v>
       </c>
       <c r="H995">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:8">
@@ -26288,7 +26288,7 @@
         <v>-10580548.79476756</v>
       </c>
       <c r="H996">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:8">
@@ -26314,7 +26314,7 @@
         <v>-10819190.26436756</v>
       </c>
       <c r="H997">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:8">
@@ -26340,7 +26340,7 @@
         <v>-10826641.84696756</v>
       </c>
       <c r="H998">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:8">
@@ -26366,7 +26366,7 @@
         <v>-10747490.06756756</v>
       </c>
       <c r="H999">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1000" spans="1:8">
@@ -26392,7 +26392,7 @@
         <v>-10758509.18486756</v>
       </c>
       <c r="H1000">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1001" spans="1:8">
@@ -26418,7 +26418,7 @@
         <v>-11045577.91246756</v>
       </c>
       <c r="H1001">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1002" spans="1:8">
